--- a/data/pca/factorExposure/factorExposure_2019-01-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1094453032049865</v>
+        <v>0.06845044850949744</v>
       </c>
       <c r="C2">
-        <v>0.002829743109904409</v>
+        <v>-0.03574535514857026</v>
       </c>
       <c r="D2">
-        <v>0.07703571556325024</v>
+        <v>-0.0186325845455022</v>
       </c>
       <c r="E2">
-        <v>-0.01629316234669048</v>
+        <v>-0.04247799986804143</v>
       </c>
       <c r="F2">
-        <v>-0.1327280595841641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1371811941515383</v>
+      </c>
+      <c r="G2">
+        <v>0.0561278078973023</v>
+      </c>
+      <c r="H2">
+        <v>-0.05795514003659558</v>
+      </c>
+      <c r="I2">
+        <v>0.10653164248351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2159267221538698</v>
+        <v>0.1594203923043663</v>
       </c>
       <c r="C3">
-        <v>-0.1516093093516362</v>
+        <v>-0.109346395131615</v>
       </c>
       <c r="D3">
-        <v>0.07635986682974422</v>
+        <v>0.00532318521478122</v>
       </c>
       <c r="E3">
-        <v>0.009932831825598488</v>
+        <v>0.002520531925565339</v>
       </c>
       <c r="F3">
-        <v>-0.3413455860806338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3855859114106157</v>
+      </c>
+      <c r="G3">
+        <v>0.2685971755141701</v>
+      </c>
+      <c r="H3">
+        <v>-0.09410382584845915</v>
+      </c>
+      <c r="I3">
+        <v>0.3582087780144799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09521020056785887</v>
+        <v>0.0717703562928307</v>
       </c>
       <c r="C4">
-        <v>-0.03481225611360735</v>
+        <v>-0.05090879278339738</v>
       </c>
       <c r="D4">
-        <v>0.05302879200357664</v>
+        <v>0.01575101872912898</v>
       </c>
       <c r="E4">
-        <v>0.02840823954138509</v>
+        <v>-0.04079708774943674</v>
       </c>
       <c r="F4">
-        <v>-0.0711897604632229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.08002841724051081</v>
+      </c>
+      <c r="G4">
+        <v>0.0222549860337981</v>
+      </c>
+      <c r="H4">
+        <v>-0.0502289893917322</v>
+      </c>
+      <c r="I4">
+        <v>0.05616485026872468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02258604140681185</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01091941405981672</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004696013533946646</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006143583947840388</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.007842171168536687</v>
+      </c>
+      <c r="G6">
+        <v>-0.01438559390430332</v>
+      </c>
+      <c r="H6">
+        <v>0.02018958899404225</v>
+      </c>
+      <c r="I6">
+        <v>-0.004805575266780097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04522143756263997</v>
+        <v>0.03484480635474654</v>
       </c>
       <c r="C7">
-        <v>-0.01330542956396405</v>
+        <v>-0.02019027034372897</v>
       </c>
       <c r="D7">
-        <v>0.04527333340453729</v>
+        <v>0.03640570292123708</v>
       </c>
       <c r="E7">
-        <v>-0.003958444457796761</v>
+        <v>-0.02855692053652403</v>
       </c>
       <c r="F7">
-        <v>-0.06066691563266118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04956778653926842</v>
+      </c>
+      <c r="G7">
+        <v>0.05208020200745403</v>
+      </c>
+      <c r="H7">
+        <v>0.0002165182058322715</v>
+      </c>
+      <c r="I7">
+        <v>0.03617839728101864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05388745882186902</v>
+        <v>0.02737306838449154</v>
       </c>
       <c r="C8">
-        <v>-0.05445615331547565</v>
+        <v>-0.05406462191079001</v>
       </c>
       <c r="D8">
-        <v>0.03354442390755782</v>
+        <v>0.01266932555345699</v>
       </c>
       <c r="E8">
-        <v>0.02616848079245092</v>
+        <v>-0.02104064987129221</v>
       </c>
       <c r="F8">
-        <v>-0.06840606956125994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0724690129346862</v>
+      </c>
+      <c r="G8">
+        <v>0.04091130375170562</v>
+      </c>
+      <c r="H8">
+        <v>-0.03962689317859876</v>
+      </c>
+      <c r="I8">
+        <v>0.06492556412142016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08048092666831198</v>
+        <v>0.06025747674168312</v>
       </c>
       <c r="C9">
-        <v>-0.02646259138379818</v>
+        <v>-0.04537465772802454</v>
       </c>
       <c r="D9">
-        <v>0.05307323465656318</v>
+        <v>0.01897622095536118</v>
       </c>
       <c r="E9">
-        <v>0.04161225476909108</v>
+        <v>-0.03615536539493945</v>
       </c>
       <c r="F9">
-        <v>-0.05480281331751489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07954613025405366</v>
+      </c>
+      <c r="G9">
+        <v>0.02259649316666571</v>
+      </c>
+      <c r="H9">
+        <v>-0.04591325494077547</v>
+      </c>
+      <c r="I9">
+        <v>0.03125670485236174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02553331022631617</v>
+        <v>0.03726077080521913</v>
       </c>
       <c r="C10">
-        <v>0.1512721474171721</v>
+        <v>0.1631957210718548</v>
       </c>
       <c r="D10">
-        <v>-0.06966312349640838</v>
+        <v>-0.00940437515288417</v>
       </c>
       <c r="E10">
-        <v>-0.03631951875505353</v>
+        <v>0.03638046574490143</v>
       </c>
       <c r="F10">
-        <v>-0.07523743817181583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.06713151359117377</v>
+      </c>
+      <c r="G10">
+        <v>0.02182017459329566</v>
+      </c>
+      <c r="H10">
+        <v>-0.04198929917208485</v>
+      </c>
+      <c r="I10">
+        <v>0.0491275591705085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06004138738255634</v>
+        <v>0.04937263004949263</v>
       </c>
       <c r="C11">
-        <v>-0.01760537382127977</v>
+        <v>-0.03392135805882901</v>
       </c>
       <c r="D11">
-        <v>0.01237912787760756</v>
+        <v>-0.005489913152725113</v>
       </c>
       <c r="E11">
-        <v>-0.007218281709027699</v>
+        <v>-0.01032350134651121</v>
       </c>
       <c r="F11">
-        <v>-0.04258323242744134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.0373955972454742</v>
+      </c>
+      <c r="G11">
+        <v>-0.0006688175381245815</v>
+      </c>
+      <c r="H11">
+        <v>-0.01536306999340048</v>
+      </c>
+      <c r="I11">
+        <v>0.02873194019112825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0479398283763731</v>
+        <v>0.04389660204195498</v>
       </c>
       <c r="C12">
-        <v>-0.01957376347063376</v>
+        <v>-0.0305690238081429</v>
       </c>
       <c r="D12">
-        <v>0.01063011022412165</v>
+        <v>0.006028237686617109</v>
       </c>
       <c r="E12">
-        <v>0.01056110387795048</v>
+        <v>-0.01060355490848529</v>
       </c>
       <c r="F12">
-        <v>-0.02782575998875169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01360177547355155</v>
+      </c>
+      <c r="G12">
+        <v>0.003614176762948989</v>
+      </c>
+      <c r="H12">
+        <v>-0.005653283106006098</v>
+      </c>
+      <c r="I12">
+        <v>0.01665415333958592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06230599840516426</v>
+        <v>0.04350322181985689</v>
       </c>
       <c r="C13">
-        <v>-0.02541561440905133</v>
+        <v>-0.02970818061385463</v>
       </c>
       <c r="D13">
-        <v>0.02908617261583936</v>
+        <v>-0.01410094335973116</v>
       </c>
       <c r="E13">
-        <v>-0.02900201530521743</v>
+        <v>-0.01171815095643266</v>
       </c>
       <c r="F13">
-        <v>-0.106719733767837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1036057602353547</v>
+      </c>
+      <c r="G13">
+        <v>0.03166454692360408</v>
+      </c>
+      <c r="H13">
+        <v>-0.03320693483284415</v>
+      </c>
+      <c r="I13">
+        <v>0.06233812793458932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03680438416739797</v>
+        <v>0.02726694702601525</v>
       </c>
       <c r="C14">
-        <v>-0.01927752151716433</v>
+        <v>-0.02375113917953996</v>
       </c>
       <c r="D14">
-        <v>0.03971319018303026</v>
+        <v>0.006043108953594405</v>
       </c>
       <c r="E14">
-        <v>0.00351770713255651</v>
+        <v>-0.02933603287189033</v>
       </c>
       <c r="F14">
-        <v>-0.02035435464156992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03609319840687204</v>
+      </c>
+      <c r="G14">
+        <v>0.05307440661562998</v>
+      </c>
+      <c r="H14">
+        <v>-0.0170421212740799</v>
+      </c>
+      <c r="I14">
+        <v>0.01743888722554848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0509739855120112</v>
+        <v>0.04276297814346205</v>
       </c>
       <c r="C16">
-        <v>-0.02323897996021933</v>
+        <v>-0.03575484447706453</v>
       </c>
       <c r="D16">
-        <v>0.009767011755406981</v>
+        <v>-1.156932012453448e-05</v>
       </c>
       <c r="E16">
-        <v>-0.001386948033475995</v>
+        <v>-0.008126698234712931</v>
       </c>
       <c r="F16">
-        <v>-0.03330230097431889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03352095707000241</v>
+      </c>
+      <c r="G16">
+        <v>0.00615397239748653</v>
+      </c>
+      <c r="H16">
+        <v>-0.006032469207885647</v>
+      </c>
+      <c r="I16">
+        <v>0.02928934570132075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06783840733511544</v>
+        <v>0.05326107915103954</v>
       </c>
       <c r="C19">
-        <v>-0.04406999255428815</v>
+        <v>-0.04677595074719584</v>
       </c>
       <c r="D19">
-        <v>0.03047081967626089</v>
+        <v>-0.002248579127019451</v>
       </c>
       <c r="E19">
-        <v>0.0005083384836437983</v>
+        <v>-0.02289941636429258</v>
       </c>
       <c r="F19">
-        <v>-0.08012590082319816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09133558002804654</v>
+      </c>
+      <c r="G19">
+        <v>0.05645100345908767</v>
+      </c>
+      <c r="H19">
+        <v>-0.02220713528396403</v>
+      </c>
+      <c r="I19">
+        <v>0.06783694368982444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03379553942350491</v>
+        <v>0.01988473950260249</v>
       </c>
       <c r="C20">
-        <v>-0.02966854530534113</v>
+        <v>-0.03067948440705905</v>
       </c>
       <c r="D20">
-        <v>0.04511173250139711</v>
+        <v>0.005983934401574889</v>
       </c>
       <c r="E20">
-        <v>0.01776831810558594</v>
+        <v>-0.02166689105336374</v>
       </c>
       <c r="F20">
-        <v>-0.06308353313283434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06319317633327665</v>
+      </c>
+      <c r="G20">
+        <v>0.05800573707159296</v>
+      </c>
+      <c r="H20">
+        <v>-0.01483503430296305</v>
+      </c>
+      <c r="I20">
+        <v>0.07614572915763294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0386927131954065</v>
+        <v>0.03398435694708238</v>
       </c>
       <c r="C21">
-        <v>-0.03787719390136358</v>
+        <v>-0.03240275734104599</v>
       </c>
       <c r="D21">
-        <v>0.02238240143141894</v>
+        <v>0.01179481198041011</v>
       </c>
       <c r="E21">
-        <v>-0.006522183834608138</v>
+        <v>-0.007578911190409533</v>
       </c>
       <c r="F21">
-        <v>-0.1014773310815264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0812540138282703</v>
+      </c>
+      <c r="G21">
+        <v>0.01465289022687697</v>
+      </c>
+      <c r="H21">
+        <v>-0.04833452941407052</v>
+      </c>
+      <c r="I21">
+        <v>0.002748768957029985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04967370831397601</v>
+        <v>0.04072537543061451</v>
       </c>
       <c r="C24">
-        <v>-0.01991798722333748</v>
+        <v>-0.03100015873973598</v>
       </c>
       <c r="D24">
-        <v>0.01731236391510993</v>
+        <v>0.000667955785209888</v>
       </c>
       <c r="E24">
-        <v>0.00377847483757796</v>
+        <v>-0.01114990038114061</v>
       </c>
       <c r="F24">
-        <v>-0.04188392755874371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03606350370787723</v>
+      </c>
+      <c r="G24">
+        <v>0.001093619888151913</v>
+      </c>
+      <c r="H24">
+        <v>-0.008704729935120776</v>
+      </c>
+      <c r="I24">
+        <v>0.02983896209576719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05221510636325543</v>
+        <v>0.04781126115276133</v>
       </c>
       <c r="C25">
-        <v>-0.01590693583262042</v>
+        <v>-0.02807544450107467</v>
       </c>
       <c r="D25">
-        <v>0.01260178815792483</v>
+        <v>-0.0002583652776637189</v>
       </c>
       <c r="E25">
-        <v>0.00185520933159252</v>
+        <v>-0.009596654850785032</v>
       </c>
       <c r="F25">
-        <v>-0.03991760638895319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04243779990247518</v>
+      </c>
+      <c r="G25">
+        <v>-0.0007272352474181453</v>
+      </c>
+      <c r="H25">
+        <v>-0.01362812613982989</v>
+      </c>
+      <c r="I25">
+        <v>0.02063235997388803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0279293000526242</v>
+        <v>0.01651954433281387</v>
       </c>
       <c r="C26">
-        <v>-0.03133570047761332</v>
+        <v>-0.03194741353002913</v>
       </c>
       <c r="D26">
-        <v>0.02461585966916048</v>
+        <v>-0.003553707610394944</v>
       </c>
       <c r="E26">
-        <v>-0.01856567082936741</v>
+        <v>-0.004299756604671434</v>
       </c>
       <c r="F26">
-        <v>-0.03145185776963015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.0425293470919859</v>
+      </c>
+      <c r="G26">
+        <v>0.03115621928199313</v>
+      </c>
+      <c r="H26">
+        <v>-0.01397336541370058</v>
+      </c>
+      <c r="I26">
+        <v>0.02706970111510161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1197145403219198</v>
+        <v>0.07103764400941626</v>
       </c>
       <c r="C27">
-        <v>-0.0167700252175398</v>
+        <v>-0.02627794010767606</v>
       </c>
       <c r="D27">
-        <v>0.04127963538595745</v>
+        <v>0.005085237868275737</v>
       </c>
       <c r="E27">
-        <v>0.02626600308409248</v>
+        <v>-0.03373348139513715</v>
       </c>
       <c r="F27">
-        <v>-0.07849535186951147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06532142987319398</v>
+      </c>
+      <c r="G27">
+        <v>0.01630104903077742</v>
+      </c>
+      <c r="H27">
+        <v>-0.02529172164317697</v>
+      </c>
+      <c r="I27">
+        <v>0.03837357220324608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02526567250752561</v>
+        <v>0.05194664722373143</v>
       </c>
       <c r="C28">
-        <v>0.2274558891379918</v>
+        <v>0.2475463924722113</v>
       </c>
       <c r="D28">
-        <v>-0.1142726371125122</v>
+        <v>-0.005720032804570706</v>
       </c>
       <c r="E28">
-        <v>-0.03453018939743272</v>
+        <v>0.05236914914558283</v>
       </c>
       <c r="F28">
-        <v>-0.05351236810791118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0574013845503246</v>
+      </c>
+      <c r="G28">
+        <v>0.03653641123823455</v>
+      </c>
+      <c r="H28">
+        <v>-0.04613887951879637</v>
+      </c>
+      <c r="I28">
+        <v>0.07278513682852572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.03277211153154021</v>
+        <v>0.02456101507505997</v>
       </c>
       <c r="C29">
-        <v>-0.01857573535030522</v>
+        <v>-0.02180259701537593</v>
       </c>
       <c r="D29">
-        <v>0.03724922924685131</v>
+        <v>0.009246680347715494</v>
       </c>
       <c r="E29">
-        <v>0.01531947251934965</v>
+        <v>-0.03024296682689611</v>
       </c>
       <c r="F29">
-        <v>-0.02102414578568976</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0329636627812591</v>
+      </c>
+      <c r="G29">
+        <v>0.05276834798938861</v>
+      </c>
+      <c r="H29">
+        <v>-0.02028910358019626</v>
+      </c>
+      <c r="I29">
+        <v>0.003735409917331006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1156205974071692</v>
+        <v>0.08927081895495811</v>
       </c>
       <c r="C30">
-        <v>-0.01842723374434443</v>
+        <v>-0.05188977161835816</v>
       </c>
       <c r="D30">
-        <v>0.0453601086963574</v>
+        <v>-0.03737558965946669</v>
       </c>
       <c r="E30">
-        <v>-0.007040189799692703</v>
+        <v>-0.03402563791697982</v>
       </c>
       <c r="F30">
-        <v>-0.1065619291278694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1056701925849116</v>
+      </c>
+      <c r="G30">
+        <v>0.01013931448606662</v>
+      </c>
+      <c r="H30">
+        <v>0.007046104478734516</v>
+      </c>
+      <c r="I30">
+        <v>0.02372193459791999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06994491707681534</v>
+        <v>0.06165281480610559</v>
       </c>
       <c r="C31">
-        <v>-0.01355675388848906</v>
+        <v>-0.0240289877049231</v>
       </c>
       <c r="D31">
-        <v>0.03050024759499733</v>
+        <v>-0.009701691226593291</v>
       </c>
       <c r="E31">
-        <v>-0.03257666259076855</v>
+        <v>-0.02423974756961899</v>
       </c>
       <c r="F31">
-        <v>0.03609936142163097</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.005095212683843708</v>
+      </c>
+      <c r="G31">
+        <v>0.04575063116445997</v>
+      </c>
+      <c r="H31">
+        <v>-0.0361981838091578</v>
+      </c>
+      <c r="I31">
+        <v>0.01201890220679962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07078469435639394</v>
+        <v>0.04195850434769303</v>
       </c>
       <c r="C32">
-        <v>-0.03445028453217735</v>
+        <v>-0.04666692614133498</v>
       </c>
       <c r="D32">
-        <v>0.04150245557130036</v>
+        <v>0.01636488607069311</v>
       </c>
       <c r="E32">
-        <v>0.01538951229695748</v>
+        <v>-0.03612875690737894</v>
       </c>
       <c r="F32">
-        <v>-0.08955142610875746</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0830823795967702</v>
+      </c>
+      <c r="G32">
+        <v>0.03589498963552858</v>
+      </c>
+      <c r="H32">
+        <v>-0.02773967227253524</v>
+      </c>
+      <c r="I32">
+        <v>0.05137310196958748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.07015124020279626</v>
+        <v>0.05591149006712764</v>
       </c>
       <c r="C33">
-        <v>-0.05340536764018531</v>
+        <v>-0.05674100082604321</v>
       </c>
       <c r="D33">
-        <v>0.04303352893568699</v>
+        <v>-0.01815133522054707</v>
       </c>
       <c r="E33">
-        <v>-0.01333579053670043</v>
+        <v>-0.01438001861058987</v>
       </c>
       <c r="F33">
-        <v>-0.06598930252793977</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07373086270986037</v>
+      </c>
+      <c r="G33">
+        <v>0.03816294369045084</v>
+      </c>
+      <c r="H33">
+        <v>-0.04004234997363029</v>
+      </c>
+      <c r="I33">
+        <v>0.03067454258704619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05063100603887664</v>
+        <v>0.0426534415640464</v>
       </c>
       <c r="C34">
-        <v>-0.01901473336984165</v>
+        <v>-0.03519748030698629</v>
       </c>
       <c r="D34">
-        <v>0.01877494609463223</v>
+        <v>0.004654508441769325</v>
       </c>
       <c r="E34">
-        <v>0.002710626965652038</v>
+        <v>-0.01664621599458995</v>
       </c>
       <c r="F34">
-        <v>-0.02731030634297749</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03282862662937375</v>
+      </c>
+      <c r="G34">
+        <v>0.007455188894607879</v>
+      </c>
+      <c r="H34">
+        <v>-0.009357770503379308</v>
+      </c>
+      <c r="I34">
+        <v>0.02452865577751248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01827595996649793</v>
+        <v>0.01562431286619449</v>
       </c>
       <c r="C36">
-        <v>-0.002858363742805743</v>
+        <v>-0.006609487564749539</v>
       </c>
       <c r="D36">
-        <v>0.01372354030848834</v>
+        <v>0.00463480701015371</v>
       </c>
       <c r="E36">
-        <v>0.005465218891183613</v>
+        <v>-0.0106722009969954</v>
       </c>
       <c r="F36">
-        <v>-0.01645862558905983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02494102384385471</v>
+      </c>
+      <c r="G36">
+        <v>0.03625742786292595</v>
+      </c>
+      <c r="H36">
+        <v>-0.0214106246413638</v>
+      </c>
+      <c r="I36">
+        <v>-0.007692123772042631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0436362410548724</v>
+        <v>0.03541269132127822</v>
       </c>
       <c r="C38">
-        <v>-0.01105446277637675</v>
+        <v>-0.01602363820446692</v>
       </c>
       <c r="D38">
-        <v>0.02118682369407536</v>
+        <v>0.004366363775264722</v>
       </c>
       <c r="E38">
-        <v>0.01979084620729182</v>
+        <v>-0.01243932870992215</v>
       </c>
       <c r="F38">
-        <v>-0.02158934911004758</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04978968927624731</v>
+      </c>
+      <c r="G38">
+        <v>0.02356566611018164</v>
+      </c>
+      <c r="H38">
+        <v>-0.02325473247789398</v>
+      </c>
+      <c r="I38">
+        <v>-0.009952007467502008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0714718281206099</v>
+        <v>0.05392755457968161</v>
       </c>
       <c r="C39">
-        <v>-0.01983675278720664</v>
+        <v>-0.04800596281687579</v>
       </c>
       <c r="D39">
-        <v>0.02585276830657346</v>
+        <v>-0.004894050133867822</v>
       </c>
       <c r="E39">
-        <v>-0.01384672648959122</v>
+        <v>-0.01978533957384876</v>
       </c>
       <c r="F39">
-        <v>-0.03434967035174451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05427131153552477</v>
+      </c>
+      <c r="G39">
+        <v>-0.004907258247742644</v>
+      </c>
+      <c r="H39">
+        <v>-0.02164705402644649</v>
+      </c>
+      <c r="I39">
+        <v>0.007840661304190718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07577670797470033</v>
+        <v>0.05523669881224624</v>
       </c>
       <c r="C40">
-        <v>-0.0178388878121592</v>
+        <v>-0.04419992616251213</v>
       </c>
       <c r="D40">
-        <v>0.05996768797252863</v>
+        <v>-0.0206554442813296</v>
       </c>
       <c r="E40">
-        <v>-0.03364712177562954</v>
+        <v>-0.02664654789269249</v>
       </c>
       <c r="F40">
-        <v>-0.1093283061566384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09636462808764919</v>
+      </c>
+      <c r="G40">
+        <v>0.03244360829872359</v>
+      </c>
+      <c r="H40">
+        <v>-0.03113547139764492</v>
+      </c>
+      <c r="I40">
+        <v>0.1080431621188335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.003964011879720827</v>
+        <v>0.004665941489192047</v>
       </c>
       <c r="C41">
-        <v>-0.02269927634330427</v>
+        <v>-0.01171832442180578</v>
       </c>
       <c r="D41">
-        <v>0.03159144067412337</v>
+        <v>-0.0001731476736107662</v>
       </c>
       <c r="E41">
-        <v>0.006026165249877445</v>
+        <v>-0.01105957143548585</v>
       </c>
       <c r="F41">
-        <v>0.008676349904690623</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01039650053638627</v>
+      </c>
+      <c r="G41">
+        <v>0.04550466093602456</v>
+      </c>
+      <c r="H41">
+        <v>-0.04013585269838225</v>
+      </c>
+      <c r="I41">
+        <v>0.01260325046647148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2016110675277671</v>
+        <v>0.2257336882819971</v>
       </c>
       <c r="C42">
-        <v>-0.5155152621151323</v>
+        <v>-0.2603280750725853</v>
       </c>
       <c r="D42">
-        <v>-0.7605450208438193</v>
+        <v>-0.05088421970743872</v>
       </c>
       <c r="E42">
-        <v>-0.2556246537512184</v>
+        <v>0.9074024493195214</v>
       </c>
       <c r="F42">
-        <v>0.05042612325112546</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1574954261348812</v>
+      </c>
+      <c r="G42">
+        <v>-0.0008671989799747266</v>
+      </c>
+      <c r="H42">
+        <v>0.008437643365450965</v>
+      </c>
+      <c r="I42">
+        <v>0.05596484135990008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007372561389188215</v>
+        <v>0.008799796041150205</v>
       </c>
       <c r="C43">
-        <v>-0.02421347591067358</v>
+        <v>-0.01377791415711829</v>
       </c>
       <c r="D43">
-        <v>0.03348976721020951</v>
+        <v>-0.002926296375576779</v>
       </c>
       <c r="E43">
-        <v>0.002245248524060143</v>
+        <v>-0.01024310863485514</v>
       </c>
       <c r="F43">
-        <v>-0.02140259930048567</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02423283521561178</v>
+      </c>
+      <c r="G43">
+        <v>0.03369853278469821</v>
+      </c>
+      <c r="H43">
+        <v>-0.02341461134093144</v>
+      </c>
+      <c r="I43">
+        <v>0.0219443222191609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04669956307971442</v>
+        <v>0.03000795073362712</v>
       </c>
       <c r="C44">
-        <v>-0.04524680081424286</v>
+        <v>-0.04289977272647789</v>
       </c>
       <c r="D44">
-        <v>0.04574416484716528</v>
+        <v>0.002170470707570284</v>
       </c>
       <c r="E44">
-        <v>-0.005383736458778389</v>
+        <v>-0.01796996888308603</v>
       </c>
       <c r="F44">
-        <v>-0.1081259205529555</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1175802863366863</v>
+      </c>
+      <c r="G44">
+        <v>0.08448867094044331</v>
+      </c>
+      <c r="H44">
+        <v>-0.05725094277164774</v>
+      </c>
+      <c r="I44">
+        <v>0.05289444496349243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03393345910053442</v>
+        <v>0.02682894438456708</v>
       </c>
       <c r="C46">
-        <v>-0.02059115156875093</v>
+        <v>-0.03608026897745781</v>
       </c>
       <c r="D46">
-        <v>0.03982662296608155</v>
+        <v>-0.003593282927353763</v>
       </c>
       <c r="E46">
-        <v>-0.0004062290931367185</v>
+        <v>-0.03266123483466238</v>
       </c>
       <c r="F46">
-        <v>-0.01534911601854011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04414675171933716</v>
+      </c>
+      <c r="G46">
+        <v>0.05818449792780146</v>
+      </c>
+      <c r="H46">
+        <v>-0.01935677242520241</v>
+      </c>
+      <c r="I46">
+        <v>0.008544812973503339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09647569805622415</v>
+        <v>0.08690655870553013</v>
       </c>
       <c r="C47">
-        <v>-0.007939397587182741</v>
+        <v>-0.020653486211431</v>
       </c>
       <c r="D47">
-        <v>0.02925965294619524</v>
+        <v>-0.004495894552737063</v>
       </c>
       <c r="E47">
-        <v>0.002315917099281498</v>
+        <v>-0.0293252148657313</v>
       </c>
       <c r="F47">
-        <v>0.02903726731931768</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01711011546883761</v>
+      </c>
+      <c r="G47">
+        <v>0.06213462303011037</v>
+      </c>
+      <c r="H47">
+        <v>-0.02992157800961703</v>
+      </c>
+      <c r="I47">
+        <v>0.03424960551216863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02147907047999976</v>
+        <v>0.02088791782538369</v>
       </c>
       <c r="C48">
-        <v>-0.02056157893643787</v>
+        <v>-0.01852308668962982</v>
       </c>
       <c r="D48">
-        <v>0.02563766187236985</v>
+        <v>0.0009456572313958199</v>
       </c>
       <c r="E48">
-        <v>-0.001082803115525168</v>
+        <v>-0.01436318364973665</v>
       </c>
       <c r="F48">
-        <v>-0.02087240980369457</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02631811560454584</v>
+      </c>
+      <c r="G48">
+        <v>0.0255086652632082</v>
+      </c>
+      <c r="H48">
+        <v>-0.01784826716421422</v>
+      </c>
+      <c r="I48">
+        <v>0.0104132138843753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09385472150268497</v>
+        <v>0.08851786630087577</v>
       </c>
       <c r="C50">
-        <v>-0.02873134857666453</v>
+        <v>-0.04182323984102751</v>
       </c>
       <c r="D50">
-        <v>0.03409628761862635</v>
+        <v>0.01030113242497522</v>
       </c>
       <c r="E50">
-        <v>-0.007412333100503718</v>
+        <v>-0.02712714547910736</v>
       </c>
       <c r="F50">
-        <v>0.0298029593621437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01111837038868782</v>
+      </c>
+      <c r="G50">
+        <v>0.03893407892897979</v>
+      </c>
+      <c r="H50">
+        <v>0.008321726828942392</v>
+      </c>
+      <c r="I50">
+        <v>-0.004248664265370967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05744940146426279</v>
+        <v>0.03946565757792324</v>
       </c>
       <c r="C51">
-        <v>0.01564303649017895</v>
+        <v>0.004225198215338299</v>
       </c>
       <c r="D51">
-        <v>0.02176260265457816</v>
+        <v>-0.01069710834462898</v>
       </c>
       <c r="E51">
-        <v>-0.03291294561319323</v>
+        <v>-0.01168222746055641</v>
       </c>
       <c r="F51">
-        <v>-0.06456729260702601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.09212937218093091</v>
+      </c>
+      <c r="G51">
+        <v>0.06448912062369881</v>
+      </c>
+      <c r="H51">
+        <v>-0.05499002481092629</v>
+      </c>
+      <c r="I51">
+        <v>0.03070763267780764</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1353702140819964</v>
+        <v>0.1241616699992532</v>
       </c>
       <c r="C53">
-        <v>-0.007367795272147327</v>
+        <v>-0.03768991599347083</v>
       </c>
       <c r="D53">
-        <v>0.05717290820974594</v>
+        <v>-0.005385935341756098</v>
       </c>
       <c r="E53">
-        <v>-0.006358297343156234</v>
+        <v>-0.05485238625324443</v>
       </c>
       <c r="F53">
-        <v>0.06076293122108833</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04723806121637836</v>
+      </c>
+      <c r="G53">
+        <v>0.007760635794850427</v>
+      </c>
+      <c r="H53">
+        <v>-0.02963080902754799</v>
+      </c>
+      <c r="I53">
+        <v>0.04007640396554939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02907437694947986</v>
+        <v>0.02669147753275898</v>
       </c>
       <c r="C54">
-        <v>-0.002932869773572098</v>
+        <v>-0.007537927899979495</v>
       </c>
       <c r="D54">
-        <v>0.03200898605069506</v>
+        <v>0.004822874929442675</v>
       </c>
       <c r="E54">
-        <v>0.00657626850870625</v>
+        <v>-0.03068635457084628</v>
       </c>
       <c r="F54">
-        <v>-0.02173207140364017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03012553408650389</v>
+      </c>
+      <c r="G54">
+        <v>0.05198403855800248</v>
+      </c>
+      <c r="H54">
+        <v>-0.03628620163705241</v>
+      </c>
+      <c r="I54">
+        <v>0.002936523034502688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1064309021675509</v>
+        <v>0.09759319807775159</v>
       </c>
       <c r="C55">
-        <v>0.008050766136660484</v>
+        <v>-0.03199980185833701</v>
       </c>
       <c r="D55">
-        <v>0.02943761661999229</v>
+        <v>0.01280979343441211</v>
       </c>
       <c r="E55">
-        <v>0.04091862747929327</v>
+        <v>-0.03829650409121565</v>
       </c>
       <c r="F55">
-        <v>0.02452319595830112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.03656637169243276</v>
+      </c>
+      <c r="G55">
+        <v>0.02194910519276796</v>
+      </c>
+      <c r="H55">
+        <v>0.008827242038124941</v>
+      </c>
+      <c r="I55">
+        <v>0.02249413679964407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1679194652803022</v>
+        <v>0.1632573429858993</v>
       </c>
       <c r="C56">
-        <v>0.04519777724640821</v>
+        <v>-0.02036502655482372</v>
       </c>
       <c r="D56">
-        <v>0.07620287776746826</v>
+        <v>-0.001458338640884169</v>
       </c>
       <c r="E56">
-        <v>0.02723430362855343</v>
+        <v>-0.08707709819055641</v>
       </c>
       <c r="F56">
-        <v>0.1014504793999227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09196142961148686</v>
+      </c>
+      <c r="G56">
+        <v>-0.03885713040693702</v>
+      </c>
+      <c r="H56">
+        <v>0.01087128973858023</v>
+      </c>
+      <c r="I56">
+        <v>0.04618257952709212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08675463806611158</v>
+        <v>0.06697410899847467</v>
       </c>
       <c r="C57">
-        <v>-0.02249821002103541</v>
+        <v>-0.03266861769932</v>
       </c>
       <c r="D57">
-        <v>0.0332080631055011</v>
+        <v>-0.02071720850569815</v>
       </c>
       <c r="E57">
-        <v>-0.03187924908485682</v>
+        <v>-0.004526355974670249</v>
       </c>
       <c r="F57">
-        <v>-0.04773909553779023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.07034769907801706</v>
+      </c>
+      <c r="G57">
+        <v>0.01463500817762427</v>
+      </c>
+      <c r="H57">
+        <v>-0.01704881180824643</v>
+      </c>
+      <c r="I57">
+        <v>0.0269748426486067</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2004738805401867</v>
+        <v>0.2100844803685742</v>
       </c>
       <c r="C58">
-        <v>-0.04944674650376699</v>
+        <v>-0.1018231462611809</v>
       </c>
       <c r="D58">
-        <v>0.05513329830436124</v>
+        <v>-0.09250796517307704</v>
       </c>
       <c r="E58">
-        <v>-0.04891249423771469</v>
+        <v>0.01246501892175991</v>
       </c>
       <c r="F58">
-        <v>-0.1300589595679926</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2791689218193869</v>
+      </c>
+      <c r="G58">
+        <v>0.3814528824682332</v>
+      </c>
+      <c r="H58">
+        <v>0.3314180499743201</v>
+      </c>
+      <c r="I58">
+        <v>-0.6924954207859758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02444350188992944</v>
+        <v>0.05104547571985024</v>
       </c>
       <c r="C59">
-        <v>0.1873089944642105</v>
+        <v>0.203997060075163</v>
       </c>
       <c r="D59">
-        <v>-0.06817462640077016</v>
+        <v>-0.01954756639389486</v>
       </c>
       <c r="E59">
-        <v>-0.02358416740829397</v>
+        <v>0.01784916338114149</v>
       </c>
       <c r="F59">
-        <v>-0.0544303797715491</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06943105830553355</v>
+      </c>
+      <c r="G59">
+        <v>-0.004358845518174336</v>
+      </c>
+      <c r="H59">
+        <v>-0.01621442193963328</v>
+      </c>
+      <c r="I59">
+        <v>0.01575252675529024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1795966454140535</v>
+        <v>0.1916034570893349</v>
       </c>
       <c r="C60">
-        <v>0.07588563816614499</v>
+        <v>0.05201678244422241</v>
       </c>
       <c r="D60">
-        <v>0.01555572138531435</v>
+        <v>-0.0498467725884506</v>
       </c>
       <c r="E60">
-        <v>-0.07031997510697334</v>
+        <v>-0.01081338925402317</v>
       </c>
       <c r="F60">
-        <v>-0.188620580324611</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1993869638237774</v>
+      </c>
+      <c r="G60">
+        <v>-0.3354893817956581</v>
+      </c>
+      <c r="H60">
+        <v>0.003545035815476346</v>
+      </c>
+      <c r="I60">
+        <v>-0.02828975936088976</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04339387755627378</v>
+        <v>0.03897347638218763</v>
       </c>
       <c r="C61">
-        <v>-0.01381335935976031</v>
+        <v>-0.03294331396045544</v>
       </c>
       <c r="D61">
-        <v>0.01391308408883106</v>
+        <v>0.00181635970094029</v>
       </c>
       <c r="E61">
-        <v>0.004646612454370223</v>
+        <v>-0.01098755983862054</v>
       </c>
       <c r="F61">
-        <v>-0.03127078848719673</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03529379431163883</v>
+      </c>
+      <c r="G61">
+        <v>-0.00714529227643571</v>
+      </c>
+      <c r="H61">
+        <v>-0.01095257616454491</v>
+      </c>
+      <c r="I61">
+        <v>-0.003547485232916229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.0422762437191307</v>
+        <v>0.03069040031862148</v>
       </c>
       <c r="C63">
-        <v>-0.01110029094639805</v>
+        <v>-0.02440524148865675</v>
       </c>
       <c r="D63">
-        <v>0.02564521122970634</v>
+        <v>-0.001629952690283334</v>
       </c>
       <c r="E63">
-        <v>-0.008103975189450554</v>
+        <v>-0.01501366332434111</v>
       </c>
       <c r="F63">
-        <v>-0.03545049343935227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0294801054857387</v>
+      </c>
+      <c r="G63">
+        <v>0.04852167793218295</v>
+      </c>
+      <c r="H63">
+        <v>-0.006170608761663892</v>
+      </c>
+      <c r="I63">
+        <v>0.03576744846414551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0624089766097656</v>
+        <v>0.05604075519969925</v>
       </c>
       <c r="C64">
-        <v>-0.02574919083840425</v>
+        <v>-0.0337017245387136</v>
       </c>
       <c r="D64">
-        <v>0.02917225953019044</v>
+        <v>0.01074944662622092</v>
       </c>
       <c r="E64">
-        <v>0.02954405458423081</v>
+        <v>-0.0209417505997471</v>
       </c>
       <c r="F64">
-        <v>-0.03002343109012287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03779734586305612</v>
+      </c>
+      <c r="G64">
+        <v>0.02768972337500985</v>
+      </c>
+      <c r="H64">
+        <v>-0.05947005372771184</v>
+      </c>
+      <c r="I64">
+        <v>0.03608591221767208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02480910383196156</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01065259184932707</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.005127372388847667</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006564600684852224</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.004407959823695769</v>
+      </c>
+      <c r="G65">
+        <v>-0.01921926109568461</v>
+      </c>
+      <c r="H65">
+        <v>0.01914515856335066</v>
+      </c>
+      <c r="I65">
+        <v>-0.004862822361718099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.07906136367643042</v>
+        <v>0.06734788627049203</v>
       </c>
       <c r="C66">
-        <v>-0.0282645028558045</v>
+        <v>-0.05729550117037863</v>
       </c>
       <c r="D66">
-        <v>0.05319540827314354</v>
+        <v>-0.01201419996464323</v>
       </c>
       <c r="E66">
-        <v>0.0006405543723798063</v>
+        <v>-0.04830714218251109</v>
       </c>
       <c r="F66">
-        <v>-0.07218151648033813</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06670669283592079</v>
+      </c>
+      <c r="G66">
+        <v>-0.01073160475683167</v>
+      </c>
+      <c r="H66">
+        <v>-0.009437781652146305</v>
+      </c>
+      <c r="I66">
+        <v>0.04234297333435059</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05421414703074089</v>
+        <v>0.04796408641870479</v>
       </c>
       <c r="C67">
-        <v>0.01154772760996361</v>
+        <v>0.002367225551880645</v>
       </c>
       <c r="D67">
-        <v>0.004926758605359042</v>
+        <v>-0.001394846631705895</v>
       </c>
       <c r="E67">
-        <v>0.007400950888148085</v>
+        <v>-0.01005089547555957</v>
       </c>
       <c r="F67">
-        <v>-0.01850425845319882</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03780310916538921</v>
+      </c>
+      <c r="G67">
+        <v>0.005940759378480278</v>
+      </c>
+      <c r="H67">
+        <v>-0.03442552768082367</v>
+      </c>
+      <c r="I67">
+        <v>-0.02435637409251526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.040785007171896</v>
+        <v>0.06082054785141329</v>
       </c>
       <c r="C68">
-        <v>0.2207378311096126</v>
+        <v>0.2373592772710724</v>
       </c>
       <c r="D68">
-        <v>-0.1046737244640513</v>
+        <v>-0.019383194964109</v>
       </c>
       <c r="E68">
-        <v>-0.03327846655984285</v>
+        <v>0.03912430890379576</v>
       </c>
       <c r="F68">
-        <v>-0.05103713801935557</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04878759690059529</v>
+      </c>
+      <c r="G68">
+        <v>0.02033926134196854</v>
+      </c>
+      <c r="H68">
+        <v>0.002932403276023265</v>
+      </c>
+      <c r="I68">
+        <v>0.03682626099579239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.08022019080366603</v>
+        <v>0.07229111298093045</v>
       </c>
       <c r="C69">
-        <v>-0.0005212207999776491</v>
+        <v>-0.02083813019952215</v>
       </c>
       <c r="D69">
-        <v>0.02814786691265242</v>
+        <v>-0.00593788022954814</v>
       </c>
       <c r="E69">
-        <v>-0.0005389435498285766</v>
+        <v>-0.03176898735899317</v>
       </c>
       <c r="F69">
-        <v>0.0188893309901682</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.00506336432810381</v>
+      </c>
+      <c r="G69">
+        <v>0.03852427998948059</v>
+      </c>
+      <c r="H69">
+        <v>-0.02513566629270051</v>
+      </c>
+      <c r="I69">
+        <v>0.01746583949671848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.03787070467393414</v>
+        <v>0.0576987753661708</v>
       </c>
       <c r="C71">
-        <v>0.2632003291633807</v>
+        <v>0.2596444912996107</v>
       </c>
       <c r="D71">
-        <v>-0.1225321468663255</v>
+        <v>-0.02381385003431503</v>
       </c>
       <c r="E71">
-        <v>-0.07413201268004638</v>
+        <v>0.06467044480643523</v>
       </c>
       <c r="F71">
-        <v>-0.08565286252512551</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06942642802230092</v>
+      </c>
+      <c r="G71">
+        <v>0.02595113763074476</v>
+      </c>
+      <c r="H71">
+        <v>-0.02394245157182309</v>
+      </c>
+      <c r="I71">
+        <v>0.04599520350943751</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1295175508338592</v>
+        <v>0.1242634267982848</v>
       </c>
       <c r="C72">
-        <v>0.02905646645166206</v>
+        <v>-0.03914105785001745</v>
       </c>
       <c r="D72">
-        <v>0.05357716510475557</v>
+        <v>-0.008993983254249625</v>
       </c>
       <c r="E72">
-        <v>0.001863221504663065</v>
+        <v>-0.07492461783102924</v>
       </c>
       <c r="F72">
-        <v>-0.07407050689562647</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0843563293021516</v>
+      </c>
+      <c r="G72">
+        <v>-0.03342580706595793</v>
+      </c>
+      <c r="H72">
+        <v>0.04935707219314708</v>
+      </c>
+      <c r="I72">
+        <v>-0.1149725083810946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2724228849026495</v>
+        <v>0.2705288852459881</v>
       </c>
       <c r="C73">
-        <v>0.1431865205002939</v>
+        <v>0.07617515974178518</v>
       </c>
       <c r="D73">
-        <v>-0.04282960640879913</v>
+        <v>-0.08711553647392919</v>
       </c>
       <c r="E73">
-        <v>-0.1016962352430271</v>
+        <v>0.03356892644219305</v>
       </c>
       <c r="F73">
-        <v>-0.3247395728536018</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2942702421354026</v>
+      </c>
+      <c r="G73">
+        <v>-0.5247977088485072</v>
+      </c>
+      <c r="H73">
+        <v>0.06664784887092358</v>
+      </c>
+      <c r="I73">
+        <v>-0.1058908181918887</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1485367921381752</v>
+        <v>0.1465268509885176</v>
       </c>
       <c r="C74">
-        <v>0.006123924382537841</v>
+        <v>-0.03452069217371824</v>
       </c>
       <c r="D74">
-        <v>0.04917851215355201</v>
+        <v>-0.01103013721566758</v>
       </c>
       <c r="E74">
-        <v>-0.001730891173530848</v>
+        <v>-0.05376863223441407</v>
       </c>
       <c r="F74">
-        <v>0.05056880852706912</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06865746826737894</v>
+      </c>
+      <c r="G74">
+        <v>-0.02307209825816927</v>
+      </c>
+      <c r="H74">
+        <v>0.01891654791277358</v>
+      </c>
+      <c r="I74">
+        <v>0.07602255344942928</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2252727882885724</v>
+        <v>0.2467775584642013</v>
       </c>
       <c r="C75">
-        <v>0.03597212549081814</v>
+        <v>-0.02280799034896354</v>
       </c>
       <c r="D75">
-        <v>0.08664627982873979</v>
+        <v>-0.0284540353174985</v>
       </c>
       <c r="E75">
-        <v>-0.008219991642219768</v>
+        <v>-0.1153337742504295</v>
       </c>
       <c r="F75">
-        <v>0.1430553082277642</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1462524010767159</v>
+      </c>
+      <c r="G75">
+        <v>-0.01655751048075083</v>
+      </c>
+      <c r="H75">
+        <v>-0.01460103066562423</v>
+      </c>
+      <c r="I75">
+        <v>0.04278684369441359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2492090005554011</v>
+        <v>0.2627649312817054</v>
       </c>
       <c r="C76">
-        <v>0.07137739043678105</v>
+        <v>-0.01298668515088671</v>
       </c>
       <c r="D76">
-        <v>0.08277913663273791</v>
+        <v>0.01127523336392918</v>
       </c>
       <c r="E76">
-        <v>0.06178426876935578</v>
+        <v>-0.1394220244168403</v>
       </c>
       <c r="F76">
-        <v>0.1320916857455112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1828707839220499</v>
+      </c>
+      <c r="G76">
+        <v>-0.03730486129965358</v>
+      </c>
+      <c r="H76">
+        <v>0.06484119691711318</v>
+      </c>
+      <c r="I76">
+        <v>0.05854789706799583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1379152419151875</v>
+        <v>0.1190602888426462</v>
       </c>
       <c r="C77">
-        <v>-0.06283240623211608</v>
+        <v>-0.07491879883500524</v>
       </c>
       <c r="D77">
-        <v>0.01418613650499325</v>
+        <v>-0.007423238956844433</v>
       </c>
       <c r="E77">
-        <v>-0.01402197774711835</v>
+        <v>0.03290958751071443</v>
       </c>
       <c r="F77">
-        <v>-0.1536574510587769</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1617200627278439</v>
+      </c>
+      <c r="G77">
+        <v>0.2135243282115529</v>
+      </c>
+      <c r="H77">
+        <v>0.009361548616648747</v>
+      </c>
+      <c r="I77">
+        <v>0.2386295122931406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.09506328331561771</v>
+        <v>0.07224259108451805</v>
       </c>
       <c r="C78">
-        <v>-0.07613283898238071</v>
+        <v>-0.0746592972391131</v>
       </c>
       <c r="D78">
-        <v>0.0216894584077286</v>
+        <v>0.005233147270604</v>
       </c>
       <c r="E78">
-        <v>0.009201294146671337</v>
+        <v>-0.007669604470510463</v>
       </c>
       <c r="F78">
-        <v>-0.04945133467973922</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.06935793361305911</v>
+      </c>
+      <c r="G78">
+        <v>0.01460027570679791</v>
+      </c>
+      <c r="H78">
+        <v>-0.01856474382918695</v>
+      </c>
+      <c r="I78">
+        <v>0.04594873876058884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1042268997279218</v>
+        <v>0.1381039703106578</v>
       </c>
       <c r="C80">
-        <v>-0.02241494510780511</v>
+        <v>0.05055169784620437</v>
       </c>
       <c r="D80">
-        <v>-0.2908595334848552</v>
+        <v>0.9750182011798924</v>
       </c>
       <c r="E80">
-        <v>0.9250042706903966</v>
+        <v>0.05454992946587091</v>
       </c>
       <c r="F80">
-        <v>-0.08004030553486643</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04472828835678857</v>
+      </c>
+      <c r="G80">
+        <v>-0.03435549686865364</v>
+      </c>
+      <c r="H80">
+        <v>-0.03225616657261572</v>
+      </c>
+      <c r="I80">
+        <v>-0.09707275480048393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1578910768880033</v>
+        <v>0.1815281896931321</v>
       </c>
       <c r="C81">
-        <v>0.02568907691461923</v>
+        <v>-0.008923306209194832</v>
       </c>
       <c r="D81">
-        <v>0.04745258910822528</v>
+        <v>-0.007529528095234588</v>
       </c>
       <c r="E81">
-        <v>0.009834536025059232</v>
+        <v>-0.08716928902554447</v>
       </c>
       <c r="F81">
-        <v>0.1871872545247645</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1623571294274472</v>
+      </c>
+      <c r="G81">
+        <v>0.01389035720016076</v>
+      </c>
+      <c r="H81">
+        <v>0.02069982453962271</v>
+      </c>
+      <c r="I81">
+        <v>0.0116720254855254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0953077038583053</v>
+        <v>0.07076404801369664</v>
       </c>
       <c r="C83">
-        <v>-0.093621155073688</v>
+        <v>-0.05999099490004467</v>
       </c>
       <c r="D83">
-        <v>-0.008610796351670853</v>
+        <v>-0.01398265792994219</v>
       </c>
       <c r="E83">
-        <v>-0.03950659109466165</v>
+        <v>0.03363802836986895</v>
       </c>
       <c r="F83">
-        <v>-0.02473575316314074</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04979621299858832</v>
+      </c>
+      <c r="G83">
+        <v>0.03384500171126612</v>
+      </c>
+      <c r="H83">
+        <v>-0.06571592433360753</v>
+      </c>
+      <c r="I83">
+        <v>0.05260048746906954</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2355120991019481</v>
+        <v>0.2495501352967449</v>
       </c>
       <c r="C85">
-        <v>-0.003547574930251401</v>
+        <v>-0.05376460548658211</v>
       </c>
       <c r="D85">
-        <v>0.07852882383110622</v>
+        <v>-0.007957897943855125</v>
       </c>
       <c r="E85">
-        <v>0.05478875720818673</v>
+        <v>-0.1120427073277851</v>
       </c>
       <c r="F85">
-        <v>0.1552083705323177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1847642119769944</v>
+      </c>
+      <c r="G85">
+        <v>0.01283204583119638</v>
+      </c>
+      <c r="H85">
+        <v>0.02063202297131157</v>
+      </c>
+      <c r="I85">
+        <v>0.07321534981551221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04211185151550976</v>
+        <v>0.0292874794091664</v>
       </c>
       <c r="C86">
-        <v>-0.04627762992982508</v>
+        <v>-0.05452672182208693</v>
       </c>
       <c r="D86">
-        <v>0.03997049824355192</v>
+        <v>-0.002165352418740414</v>
       </c>
       <c r="E86">
-        <v>-0.006474289098968325</v>
+        <v>-0.01741079150426058</v>
       </c>
       <c r="F86">
-        <v>-0.06877114359241471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08107503557924615</v>
+      </c>
+      <c r="G86">
+        <v>0.05823654285743733</v>
+      </c>
+      <c r="H86">
+        <v>-0.008403070128642963</v>
+      </c>
+      <c r="I86">
+        <v>0.05453351366513333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01976405847497162</v>
+        <v>0.02738857064211161</v>
       </c>
       <c r="C87">
-        <v>0.03369641655508399</v>
+        <v>0.006244840670099508</v>
       </c>
       <c r="D87">
-        <v>-0.01680383724768323</v>
+        <v>0.004315845719504431</v>
       </c>
       <c r="E87">
-        <v>-0.004568148195418358</v>
+        <v>0.003507230343116295</v>
       </c>
       <c r="F87">
-        <v>-0.09244491978140001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1022242413521646</v>
+      </c>
+      <c r="G87">
+        <v>0.02833041547808521</v>
+      </c>
+      <c r="H87">
+        <v>0.0134163743911808</v>
+      </c>
+      <c r="I87">
+        <v>0.03347787827716844</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0318259120923661</v>
+        <v>0.0367937487438563</v>
       </c>
       <c r="C88">
-        <v>-0.02019146717704639</v>
+        <v>-0.009345604941648563</v>
       </c>
       <c r="D88">
-        <v>0.01461504775596027</v>
+        <v>0.005612526874798186</v>
       </c>
       <c r="E88">
-        <v>0.02249515723802611</v>
+        <v>-0.00658101315766304</v>
       </c>
       <c r="F88">
-        <v>0.02622255474487098</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01884997442171834</v>
+      </c>
+      <c r="G88">
+        <v>0.0243991240591473</v>
+      </c>
+      <c r="H88">
+        <v>-0.0489063314987823</v>
+      </c>
+      <c r="I88">
+        <v>0.004362644633941518</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.05359383430759847</v>
+        <v>0.09316895093575706</v>
       </c>
       <c r="C89">
-        <v>0.319099773676402</v>
+        <v>0.3815105234142996</v>
       </c>
       <c r="D89">
-        <v>-0.2019984209301784</v>
+        <v>-0.05022382306339612</v>
       </c>
       <c r="E89">
-        <v>-0.08802533342003491</v>
+        <v>0.07409240353449324</v>
       </c>
       <c r="F89">
-        <v>-0.03328381780617024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.04446484946667819</v>
+      </c>
+      <c r="G89">
+        <v>0.08127412123367753</v>
+      </c>
+      <c r="H89">
+        <v>-0.04366295633885939</v>
+      </c>
+      <c r="I89">
+        <v>0.08934012912992356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.03650169583971931</v>
+        <v>0.05841682062900302</v>
       </c>
       <c r="C90">
-        <v>0.2779428473748267</v>
+        <v>0.3314202746107491</v>
       </c>
       <c r="D90">
-        <v>-0.1654512277932863</v>
+        <v>-0.02433763044777288</v>
       </c>
       <c r="E90">
-        <v>-0.02394921197786865</v>
+        <v>0.06800538415223784</v>
       </c>
       <c r="F90">
-        <v>-0.06701549624632565</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03840368771954649</v>
+      </c>
+      <c r="G90">
+        <v>0.05438366455476239</v>
+      </c>
+      <c r="H90">
+        <v>-0.01676774298560888</v>
+      </c>
+      <c r="I90">
+        <v>0.06035420147595311</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2677172322149712</v>
+        <v>0.2843586207768973</v>
       </c>
       <c r="C91">
-        <v>0.002531819202590341</v>
+        <v>-0.05463732599618868</v>
       </c>
       <c r="D91">
-        <v>0.07750144944780722</v>
+        <v>-0.01682285457973462</v>
       </c>
       <c r="E91">
-        <v>0.03728571680200458</v>
+        <v>-0.1065156538318254</v>
       </c>
       <c r="F91">
-        <v>0.2713719434041911</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2702925891389192</v>
+      </c>
+      <c r="G91">
+        <v>-0.00240700450173834</v>
+      </c>
+      <c r="H91">
+        <v>0.04997868394736269</v>
+      </c>
+      <c r="I91">
+        <v>0.06163768987254618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.07147626875616753</v>
+        <v>0.1293187795078979</v>
       </c>
       <c r="C92">
-        <v>0.2915976996578672</v>
+        <v>0.3761235122739569</v>
       </c>
       <c r="D92">
-        <v>-0.2397162270595032</v>
+        <v>-0.01111708623696135</v>
       </c>
       <c r="E92">
-        <v>-0.008387114646696352</v>
+        <v>0.0903438358450646</v>
       </c>
       <c r="F92">
-        <v>0.1000692409438165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1177764348972638</v>
+      </c>
+      <c r="G92">
+        <v>0.3393299012438348</v>
+      </c>
+      <c r="H92">
+        <v>0.01511452400638771</v>
+      </c>
+      <c r="I92">
+        <v>-0.1038050873113693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.03292508910098046</v>
+        <v>0.07608195848206172</v>
       </c>
       <c r="C93">
-        <v>0.3258370435755758</v>
+        <v>0.3966337187166029</v>
       </c>
       <c r="D93">
-        <v>-0.2151467765433543</v>
+        <v>-0.04039003430748408</v>
       </c>
       <c r="E93">
-        <v>-0.04424831098217237</v>
+        <v>0.1088680377226932</v>
       </c>
       <c r="F93">
-        <v>0.006953555077806893</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.0007231720796940916</v>
+      </c>
+      <c r="G93">
+        <v>0.02755953963872521</v>
+      </c>
+      <c r="H93">
+        <v>-0.05465192179806543</v>
+      </c>
+      <c r="I93">
+        <v>0.004513893249651796</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2816217499776869</v>
+        <v>0.3123626261766646</v>
       </c>
       <c r="C94">
-        <v>0.1159762420976698</v>
+        <v>0.03818887741763279</v>
       </c>
       <c r="D94">
-        <v>0.001517694953701632</v>
+        <v>-0.04450846862779883</v>
       </c>
       <c r="E94">
-        <v>0.009482104338191919</v>
+        <v>-0.1178720178294301</v>
       </c>
       <c r="F94">
-        <v>0.3334283187665701</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3130819774097695</v>
+      </c>
+      <c r="G94">
+        <v>0.07856240460106624</v>
+      </c>
+      <c r="H94">
+        <v>0.2027946378436644</v>
+      </c>
+      <c r="I94">
+        <v>0.01392020738142335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1716063152816026</v>
+        <v>0.1316025495914018</v>
       </c>
       <c r="C95">
-        <v>-0.05235875315104584</v>
+        <v>-0.05488924005149139</v>
       </c>
       <c r="D95">
-        <v>0.01884581281886933</v>
+        <v>-0.08302801642182776</v>
       </c>
       <c r="E95">
-        <v>-0.07910082225820939</v>
+        <v>-0.02962934148760462</v>
       </c>
       <c r="F95">
-        <v>0.4023754440812174</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1047468988416471</v>
+      </c>
+      <c r="G95">
+        <v>0.03256133497805832</v>
+      </c>
+      <c r="H95">
+        <v>-0.8743584339692634</v>
+      </c>
+      <c r="I95">
+        <v>-0.3636623505470293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2050631551532033</v>
+        <v>0.2074808752960059</v>
       </c>
       <c r="C98">
-        <v>0.08908936064914143</v>
+        <v>0.06626697655655156</v>
       </c>
       <c r="D98">
-        <v>-0.02815660337878448</v>
+        <v>-0.0631515037631365</v>
       </c>
       <c r="E98">
-        <v>-0.08372540549216388</v>
+        <v>0.02744219619062517</v>
       </c>
       <c r="F98">
-        <v>-0.0927418757474633</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1666864557176812</v>
+      </c>
+      <c r="G98">
+        <v>-0.3524226724376808</v>
+      </c>
+      <c r="H98">
+        <v>0.01599725070701606</v>
+      </c>
+      <c r="I98">
+        <v>-0.1077141525164476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.03272399748695846</v>
+        <v>0.01882063128744228</v>
       </c>
       <c r="C101">
-        <v>-0.01785782594397418</v>
+        <v>-0.03243469067279112</v>
       </c>
       <c r="D101">
-        <v>0.03813590214997092</v>
+        <v>0.004948222632230949</v>
       </c>
       <c r="E101">
-        <v>0.01576407275724197</v>
+        <v>-0.03775600082739941</v>
       </c>
       <c r="F101">
-        <v>-0.02185390222958095</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06495982431572792</v>
+      </c>
+      <c r="G101">
+        <v>0.1105852645141709</v>
+      </c>
+      <c r="H101">
+        <v>0.02069267952912354</v>
+      </c>
+      <c r="I101">
+        <v>-0.1145623435080265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1004332282738011</v>
+        <v>0.1167224703540039</v>
       </c>
       <c r="C102">
-        <v>-0.01225097830631178</v>
+        <v>-0.02694540504996369</v>
       </c>
       <c r="D102">
-        <v>0.04980175857115384</v>
+        <v>0.004621754035060177</v>
       </c>
       <c r="E102">
-        <v>0.04005130378348899</v>
+        <v>-0.05381584926320027</v>
       </c>
       <c r="F102">
-        <v>0.1040368686753897</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1173107247685324</v>
+      </c>
+      <c r="G102">
+        <v>0.008666388062598035</v>
+      </c>
+      <c r="H102">
+        <v>-0.001387058089002228</v>
+      </c>
+      <c r="I102">
+        <v>0.05441389358842299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02034325051960411</v>
+        <v>0.02905591030747197</v>
       </c>
       <c r="C103">
-        <v>-0.004481049707441023</v>
+        <v>-0.008847766540137286</v>
       </c>
       <c r="D103">
-        <v>0.01555249839378364</v>
+        <v>0.008672043413899384</v>
       </c>
       <c r="E103">
-        <v>0.005435655897364059</v>
+        <v>-0.01861318300900594</v>
       </c>
       <c r="F103">
-        <v>0.03378722355985634</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02580791359067848</v>
+      </c>
+      <c r="G103">
+        <v>0.01573580219193684</v>
+      </c>
+      <c r="H103">
+        <v>-0.00905766952958968</v>
+      </c>
+      <c r="I103">
+        <v>0.01221924387428706</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
